--- a/Yeni Düzenleme.xlsx
+++ b/Yeni Düzenleme.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\KariyerMasasiEF\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A86F2CF-3F6A-4299-A3EF-DE3A35F3DBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{D8619E98-A5A5-4D5E-9CA0-60308664F032}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -129,8 +123,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,12 +138,18 @@
       <name val="Poppins"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -164,9 +164,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -229,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -281,7 +282,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -475,28 +476,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FF95EA-3C6A-41B8-A221-7057DD725550}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="63.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -518,7 +519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -526,17 +527,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -547,19 +548,102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639DBF52-49B2-4894-8414-289A5744EB3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="114.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -567,7 +651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -575,7 +659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -586,87 +670,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC883852-EFA9-4DFE-AF81-C6120C026038}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="114.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Yeni Düzenleme.xlsx
+++ b/Yeni Düzenleme.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -476,7 +476,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -552,7 +552,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -562,49 +562,49 @@
     <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1">
+      <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
